--- a/Restaurant_Table.xlsx
+++ b/Restaurant_Table.xlsx
@@ -6033,161 +6033,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100220DBCC617EB8841B8E1799094B8E6C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="83cea18f2050b3f20ec868599a70703a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb9ab271-3a04-4880-b694-74d8ad214b16" xmlns:ns3="b4cf2772-94c7-4732-982f-cb134ebf7dbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96e3d19f16d0e7ef6ed8f82812997b7f" ns2:_="" ns3:_="">
-    <xsd:import namespace="fb9ab271-3a04-4880-b694-74d8ad214b16"/>
-    <xsd:import namespace="b4cf2772-94c7-4732-982f-cb134ebf7dbd"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFA73F58F69A124D91745B7922F86905" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e87efc625846881e30c20cdb627d7e56">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:ValuationDate" minOccurs="0"/>
-                <xsd:element ref="ns2:InstrumentType" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
+              <xsd:all/>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9ab271-3a04-4880-b694-74d8ad214b16" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ValuationDate" ma:index="16" nillable="true" ma:displayName="Valuation Date" ma:format="DateOnly" ma:internalName="ValuationDate">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="InstrumentType" ma:index="17" nillable="true" ma:displayName="Instrument Type" ma:description="Type of instrument being valued" ma:format="Dropdown" ma:internalName="InstrumentType">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="18" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0b8c3af2-204a-487b-88ec-bfb44bf10055" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="24" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b4cf2772-94c7-4732-982f-cb134ebf7dbd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4a4d8e7f-912d-4d8d-ab18-9d8e7a83b26a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b4cf2772-94c7-4732-982f-cb134ebf7dbd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="25" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="26" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -6201,7 +6058,7 @@
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
         <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1" ma:index="20" ma:displayName="Subject"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
@@ -6291,15 +6148,7 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ValuationDate xmlns="fb9ab271-3a04-4880-b694-74d8ad214b16" xsi:nil="true"/>
-    <InstrumentType xmlns="fb9ab271-3a04-4880-b694-74d8ad214b16" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fb9ab271-3a04-4880-b694-74d8ad214b16">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b4cf2772-94c7-4732-982f-cb134ebf7dbd" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="fb9ab271-3a04-4880-b694-74d8ad214b16" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
@@ -6312,22 +6161,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E0BBEAC-7314-42A3-9559-BA6BEF83FC86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fb9ab271-3a04-4880-b694-74d8ad214b16"/>
-    <ds:schemaRef ds:uri="b4cf2772-94c7-4732-982f-cb134ebf7dbd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16BEBABC-F95A-4529-95BB-75C3C494699A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
